--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-250-6 (Крис1а)/от 23.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-250-6 (Крис1а)/от 23.10.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -27,19 +27,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Черн. форма'!$A$1:$R$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист.  поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Чист. форма'!$A$1:$S$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Чист. форма'!$A$1:$S$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="115">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -365,25 +365,7 @@
     <t>Принадлежность деталей формокомплекта</t>
   </si>
   <si>
-    <t>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</t>
-  </si>
-  <si>
-    <t>78 / 54</t>
-  </si>
-  <si>
-    <t>77,98 / 53,98</t>
-  </si>
-  <si>
     <t>Полная высота 52,5 мм</t>
-  </si>
-  <si>
-    <t>58,93 / 35,83</t>
-  </si>
-  <si>
-    <t>48 / 32</t>
-  </si>
-  <si>
-    <t>59 / 36</t>
   </si>
   <si>
     <t>Поддон</t>
@@ -392,17 +374,23 @@
     <t>Пресс головка</t>
   </si>
   <si>
-    <t>ХXI-КПМ-30-1-500-7</t>
+    <t>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</t>
   </si>
   <si>
-    <t>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</t>
+    <t>ХXI-В-28-1-250</t>
+  </si>
+  <si>
+    <t>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</t>
+  </si>
+  <si>
+    <t>54,8 / 53,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -687,6 +675,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3027,6 +3022,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3161,9 +3159,6 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3421,19 +3416,19 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3769,7 +3764,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3814,7 +3809,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4631,52 +4626,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="6522"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10184130" y="232410"/>
-          <a:ext cx="3581400" cy="2066925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -4696,7 +4645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4740,7 +4689,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5693,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5706,25 +5655,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="393" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="393" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="395"/>
+      <c r="A2" s="394" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="395"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="396"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -5735,45 +5684,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="397" t="s">
+      <c r="A4" s="398" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="399" t="s">
+      <c r="A5" s="400" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="400"/>
-      <c r="C5" s="400"/>
-      <c r="D5" s="400"/>
-      <c r="E5" s="401"/>
+      <c r="B5" s="401"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="401"/>
+      <c r="E5" s="402"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="392" t="s">
+      <c r="A7" s="393" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
-      <c r="D7" s="396"/>
-      <c r="E7" s="396"/>
+      <c r="B7" s="397"/>
+      <c r="C7" s="397"/>
+      <c r="D7" s="397"/>
+      <c r="E7" s="397"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="402"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="404"/>
+      <c r="A8" s="403"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="404"/>
+      <c r="E8" s="405"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="392" t="s">
+      <c r="A10" s="393" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="392"/>
+      <c r="B10" s="393"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -5784,33 +5733,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="390"/>
-      <c r="B11" s="391"/>
+      <c r="A11" s="391"/>
+      <c r="B11" s="392"/>
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="405" t="s">
+      <c r="F11" s="406" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="405"/>
-      <c r="H11" s="405"/>
-      <c r="I11" s="405"/>
-      <c r="J11" s="406" t="s">
+      <c r="G11" s="406"/>
+      <c r="H11" s="406"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="406"/>
+      <c r="K11" s="407"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="405" t="s">
+      <c r="F12" s="406" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="405"/>
-      <c r="J12" s="406" t="s">
+      <c r="G12" s="406"/>
+      <c r="H12" s="406"/>
+      <c r="I12" s="406"/>
+      <c r="J12" s="407" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="406"/>
+      <c r="K12" s="407"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -5822,16 +5771,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="405" t="s">
+      <c r="F13" s="406" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="405"/>
-      <c r="H13" s="405"/>
-      <c r="I13" s="405"/>
-      <c r="J13" s="406" t="s">
+      <c r="G13" s="406"/>
+      <c r="H13" s="406"/>
+      <c r="I13" s="406"/>
+      <c r="J13" s="407" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="406"/>
+      <c r="K13" s="407"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -5841,7 +5790,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5852,7 +5801,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5863,7 +5812,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5874,7 +5823,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5885,7 +5834,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5896,7 +5845,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5907,7 +5856,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5918,7 +5867,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5938,7 +5887,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5949,7 +5898,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5969,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="382" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5985,15 +5934,15 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="389" t="s">
+      <c r="A29" s="390" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="389"/>
-      <c r="C29" s="389"/>
+      <c r="B29" s="390"/>
+      <c r="C29" s="390"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6142,18 +6091,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="480"/>
       <c r="J5" s="481"/>
       <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -6168,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -6179,7 +6128,7 @@
       <c r="I6" s="480"/>
       <c r="J6" s="481"/>
       <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -6194,7 +6143,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -6206,11 +6155,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -6653,7 +6602,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6768,18 +6717,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="480"/>
       <c r="J5" s="481"/>
       <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -6794,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -6805,7 +6754,7 @@
       <c r="I6" s="480"/>
       <c r="J6" s="481"/>
       <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -6820,7 +6769,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -6832,11 +6781,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -6938,7 +6887,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="365">
-        <v>27.2</v>
+        <v>15.9</v>
       </c>
       <c r="D11" s="155" t="s">
         <v>39</v>
@@ -7004,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="365">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="155">
         <v>0.1</v>
@@ -7261,7 +7210,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7313,16 +7262,16 @@
         <v>11</v>
       </c>
       <c r="J2" s="502"/>
-      <c r="K2" s="524">
+      <c r="K2" s="523">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="525"/>
+      <c r="L2" s="524"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="523"/>
-      <c r="Q2" s="523"/>
+      <c r="P2" s="527"/>
+      <c r="Q2" s="527"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
@@ -7339,8 +7288,8 @@
       <c r="H3" s="500"/>
       <c r="I3" s="503"/>
       <c r="J3" s="504"/>
-      <c r="K3" s="526"/>
-      <c r="L3" s="527"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="526"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -7376,18 +7325,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="480"/>
       <c r="J5" s="481"/>
       <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -7402,7 +7351,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -7413,7 +7362,7 @@
       <c r="I6" s="480"/>
       <c r="J6" s="481"/>
       <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -7428,7 +7377,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -7440,11 +7389,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -7512,8 +7461,8 @@
       <c r="B10" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="388" t="s">
-        <v>113</v>
+      <c r="C10" s="388">
+        <v>30</v>
       </c>
       <c r="D10" s="287">
         <v>0.1</v>
@@ -7546,7 +7495,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="366">
-        <v>77.8</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="D11" s="291">
         <v>0</v>
@@ -7717,9 +7666,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -7735,6 +7681,9 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7763,8 +7712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7830,47 +7779,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="408" t="s">
+      <c r="A11" s="409" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="408"/>
-      <c r="C11" s="408"/>
-      <c r="D11" s="408"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="408"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="408"/>
-      <c r="I11" s="408"/>
-      <c r="J11" s="408"/>
+      <c r="B11" s="409"/>
+      <c r="C11" s="409"/>
+      <c r="D11" s="409"/>
+      <c r="E11" s="409"/>
+      <c r="F11" s="409"/>
+      <c r="G11" s="409"/>
+      <c r="H11" s="409"/>
+      <c r="I11" s="409"/>
+      <c r="J11" s="409"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="407" t="s">
+      <c r="A12" s="408" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="407"/>
-      <c r="C12" s="407"/>
-      <c r="D12" s="407"/>
-      <c r="E12" s="407"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="407"/>
-      <c r="H12" s="407"/>
-      <c r="I12" s="407"/>
-      <c r="J12" s="407"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="408"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="408"/>
+      <c r="F12" s="408"/>
+      <c r="G12" s="408"/>
+      <c r="H12" s="408"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="408"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="409" t="str">
+      <c r="A13" s="410" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="B13" s="408"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="408"/>
-      <c r="G13" s="408"/>
-      <c r="H13" s="408"/>
-      <c r="I13" s="408"/>
-      <c r="J13" s="408"/>
+      <c r="B13" s="409"/>
+      <c r="C13" s="409"/>
+      <c r="D13" s="409"/>
+      <c r="E13" s="409"/>
+      <c r="F13" s="409"/>
+      <c r="G13" s="409"/>
+      <c r="H13" s="409"/>
+      <c r="I13" s="409"/>
+      <c r="J13" s="409"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -7995,482 +7944,493 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="414" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="413" t="s">
+      <c r="B22" s="414" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413" t="s">
+      <c r="C22" s="414"/>
+      <c r="D22" s="414"/>
+      <c r="E22" s="414" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="413"/>
-      <c r="G22" s="431" t="s">
+      <c r="F22" s="414"/>
+      <c r="G22" s="432" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="413" t="s">
+      <c r="H22" s="414" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
+      <c r="I22" s="414"/>
+      <c r="J22" s="414"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="413"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="413"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="413"/>
-      <c r="F23" s="413"/>
-      <c r="G23" s="431"/>
-      <c r="H23" s="413"/>
-      <c r="I23" s="413"/>
-      <c r="J23" s="413"/>
+      <c r="A23" s="414"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="414"/>
+      <c r="D23" s="414"/>
+      <c r="E23" s="414"/>
+      <c r="F23" s="414"/>
+      <c r="G23" s="432"/>
+      <c r="H23" s="414"/>
+      <c r="I23" s="414"/>
+      <c r="J23" s="414"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="414">
+      <c r="A24" s="415">
         <v>1</v>
       </c>
-      <c r="B24" s="428" t="s">
+      <c r="B24" s="429" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="429"/>
-      <c r="D24" s="430"/>
-      <c r="E24" s="416" t="str">
+      <c r="C24" s="430"/>
+      <c r="D24" s="431"/>
+      <c r="E24" s="417" t="str">
         <f>Данные!C14</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F24" s="417"/>
-      <c r="G24" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F24" s="418"/>
+      <c r="G24" s="421">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="422"/>
-      <c r="I24" s="423"/>
-      <c r="J24" s="424"/>
+      <c r="H24" s="423"/>
+      <c r="I24" s="424"/>
+      <c r="J24" s="425"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="415"/>
-      <c r="B25" s="410" t="str">
+      <c r="A25" s="416"/>
+      <c r="B25" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C25" s="411"/>
-      <c r="D25" s="412"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="419"/>
-      <c r="G25" s="421"/>
-      <c r="H25" s="425"/>
-      <c r="I25" s="426"/>
-      <c r="J25" s="427"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C25" s="412"/>
+      <c r="D25" s="413"/>
+      <c r="E25" s="419"/>
+      <c r="F25" s="420"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="426"/>
+      <c r="I25" s="427"/>
+      <c r="J25" s="428"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="414">
-        <v>1</v>
-      </c>
-      <c r="B26" s="432" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="433"/>
-      <c r="D26" s="434"/>
-      <c r="E26" s="416" t="str">
+      <c r="A26" s="415">
+        <f>A24+1</f>
+        <v>2</v>
+      </c>
+      <c r="B26" s="433" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="434"/>
+      <c r="D26" s="435"/>
+      <c r="E26" s="417" t="str">
         <f>Данные!C15</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F26" s="417"/>
-      <c r="G26" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F26" s="418"/>
+      <c r="G26" s="421">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="422"/>
-      <c r="I26" s="423"/>
-      <c r="J26" s="424"/>
+      <c r="H26" s="423"/>
+      <c r="I26" s="424"/>
+      <c r="J26" s="425"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="415"/>
-      <c r="B27" s="410" t="str">
+      <c r="A27" s="416"/>
+      <c r="B27" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C27" s="411"/>
-      <c r="D27" s="412"/>
-      <c r="E27" s="418"/>
-      <c r="F27" s="419"/>
-      <c r="G27" s="421"/>
-      <c r="H27" s="425"/>
-      <c r="I27" s="426"/>
-      <c r="J27" s="427"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="414">
-        <v>1</v>
-      </c>
-      <c r="B28" s="432" t="s">
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C27" s="412"/>
+      <c r="D27" s="413"/>
+      <c r="E27" s="419"/>
+      <c r="F27" s="420"/>
+      <c r="G27" s="422"/>
+      <c r="H27" s="426"/>
+      <c r="I27" s="427"/>
+      <c r="J27" s="428"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="415">
+        <f t="shared" ref="A28" si="0">A26+1</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="433" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="433"/>
-      <c r="D28" s="434"/>
-      <c r="E28" s="416" t="str">
+      <c r="C28" s="434"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="417" t="str">
         <f>Данные!C16</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F28" s="417"/>
-      <c r="G28" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F28" s="418"/>
+      <c r="G28" s="421">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="422"/>
-      <c r="I28" s="423"/>
-      <c r="J28" s="424"/>
+      <c r="H28" s="423"/>
+      <c r="I28" s="424"/>
+      <c r="J28" s="425"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="415"/>
-      <c r="B29" s="410" t="str">
+      <c r="A29" s="416"/>
+      <c r="B29" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C29" s="411"/>
-      <c r="D29" s="412"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="419"/>
-      <c r="G29" s="421"/>
-      <c r="H29" s="425"/>
-      <c r="I29" s="426"/>
-      <c r="J29" s="427"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C29" s="412"/>
+      <c r="D29" s="413"/>
+      <c r="E29" s="419"/>
+      <c r="F29" s="420"/>
+      <c r="G29" s="422"/>
+      <c r="H29" s="426"/>
+      <c r="I29" s="427"/>
+      <c r="J29" s="428"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="414">
-        <v>1</v>
-      </c>
-      <c r="B30" s="432" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="433"/>
-      <c r="D30" s="434"/>
-      <c r="E30" s="416" t="str">
+      <c r="A30" s="415">
+        <f t="shared" ref="A30" si="1">A28+1</f>
+        <v>4</v>
+      </c>
+      <c r="B30" s="433" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="434"/>
+      <c r="D30" s="435"/>
+      <c r="E30" s="417" t="str">
         <f>Данные!C17</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F30" s="417"/>
-      <c r="G30" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F30" s="418"/>
+      <c r="G30" s="421">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="422"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="424"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="424"/>
+      <c r="J30" s="425"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="435"/>
-      <c r="B31" s="410" t="str">
+      <c r="A31" s="416"/>
+      <c r="B31" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C31" s="411"/>
-      <c r="D31" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C31" s="412"/>
+      <c r="D31" s="413"/>
       <c r="E31" s="436"/>
-      <c r="F31" s="419"/>
-      <c r="G31" s="421"/>
-      <c r="H31" s="425"/>
-      <c r="I31" s="426"/>
-      <c r="J31" s="427"/>
+      <c r="F31" s="420"/>
+      <c r="G31" s="422"/>
+      <c r="H31" s="426"/>
+      <c r="I31" s="427"/>
+      <c r="J31" s="428"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="414">
-        <v>1</v>
-      </c>
-      <c r="B32" s="432" t="s">
+      <c r="A32" s="415">
+        <f t="shared" ref="A32" si="2">A30+1</f>
+        <v>5</v>
+      </c>
+      <c r="B32" s="433" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="433"/>
-      <c r="D32" s="434"/>
-      <c r="E32" s="416" t="str">
+      <c r="C32" s="434"/>
+      <c r="D32" s="435"/>
+      <c r="E32" s="417" t="str">
         <f>Данные!C18</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F32" s="417"/>
-      <c r="G32" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F32" s="418"/>
+      <c r="G32" s="421">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="422"/>
-      <c r="I32" s="423"/>
-      <c r="J32" s="424"/>
+      <c r="H32" s="423"/>
+      <c r="I32" s="424"/>
+      <c r="J32" s="425"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="435"/>
-      <c r="B33" s="410" t="str">
+      <c r="A33" s="416"/>
+      <c r="B33" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C33" s="411"/>
-      <c r="D33" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C33" s="412"/>
+      <c r="D33" s="413"/>
       <c r="E33" s="436"/>
-      <c r="F33" s="419"/>
-      <c r="G33" s="421"/>
-      <c r="H33" s="425"/>
-      <c r="I33" s="426"/>
-      <c r="J33" s="427"/>
+      <c r="F33" s="420"/>
+      <c r="G33" s="422"/>
+      <c r="H33" s="426"/>
+      <c r="I33" s="427"/>
+      <c r="J33" s="428"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="414">
-        <v>1</v>
-      </c>
-      <c r="B34" s="432" t="s">
+      <c r="A34" s="415">
+        <f t="shared" ref="A34" si="3">A32+1</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="433" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="433"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="416" t="str">
+      <c r="C34" s="434"/>
+      <c r="D34" s="435"/>
+      <c r="E34" s="417" t="str">
         <f>Данные!C19</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F34" s="417"/>
-      <c r="G34" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F34" s="418"/>
+      <c r="G34" s="421">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="422"/>
-      <c r="I34" s="423"/>
-      <c r="J34" s="424"/>
+      <c r="H34" s="423"/>
+      <c r="I34" s="424"/>
+      <c r="J34" s="425"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="435"/>
-      <c r="B35" s="410" t="str">
+      <c r="A35" s="416"/>
+      <c r="B35" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C35" s="411"/>
-      <c r="D35" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C35" s="412"/>
+      <c r="D35" s="413"/>
       <c r="E35" s="436"/>
-      <c r="F35" s="419"/>
-      <c r="G35" s="421"/>
-      <c r="H35" s="425"/>
-      <c r="I35" s="426"/>
-      <c r="J35" s="427"/>
+      <c r="F35" s="420"/>
+      <c r="G35" s="422"/>
+      <c r="H35" s="426"/>
+      <c r="I35" s="427"/>
+      <c r="J35" s="428"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="414">
-        <v>1</v>
-      </c>
-      <c r="B36" s="432" t="s">
+      <c r="A36" s="415">
+        <f t="shared" ref="A36" si="4">A34+1</f>
+        <v>7</v>
+      </c>
+      <c r="B36" s="433" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="433"/>
-      <c r="D36" s="434"/>
-      <c r="E36" s="416" t="str">
+      <c r="C36" s="434"/>
+      <c r="D36" s="435"/>
+      <c r="E36" s="417" t="str">
         <f>Данные!C20</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F36" s="417"/>
-      <c r="G36" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F36" s="418"/>
+      <c r="G36" s="421">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="422"/>
-      <c r="I36" s="423"/>
-      <c r="J36" s="424"/>
+      <c r="H36" s="423"/>
+      <c r="I36" s="424"/>
+      <c r="J36" s="425"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="435"/>
-      <c r="B37" s="410" t="str">
+      <c r="A37" s="416"/>
+      <c r="B37" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C37" s="411"/>
-      <c r="D37" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C37" s="412"/>
+      <c r="D37" s="413"/>
       <c r="E37" s="436"/>
-      <c r="F37" s="419"/>
-      <c r="G37" s="421"/>
-      <c r="H37" s="425"/>
-      <c r="I37" s="426"/>
-      <c r="J37" s="427"/>
+      <c r="F37" s="420"/>
+      <c r="G37" s="422"/>
+      <c r="H37" s="426"/>
+      <c r="I37" s="427"/>
+      <c r="J37" s="428"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="414">
-        <v>1</v>
-      </c>
-      <c r="B38" s="432" t="s">
+      <c r="A38" s="415">
+        <f t="shared" ref="A38" si="5">A36+1</f>
+        <v>8</v>
+      </c>
+      <c r="B38" s="433" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="433"/>
-      <c r="D38" s="434"/>
-      <c r="E38" s="416" t="str">
+      <c r="C38" s="434"/>
+      <c r="D38" s="435"/>
+      <c r="E38" s="417" t="str">
         <f>Данные!C21</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F38" s="417"/>
-      <c r="G38" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F38" s="418"/>
+      <c r="G38" s="421">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="422"/>
-      <c r="I38" s="423"/>
-      <c r="J38" s="424"/>
+      <c r="H38" s="423"/>
+      <c r="I38" s="424"/>
+      <c r="J38" s="425"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="435"/>
-      <c r="B39" s="410" t="str">
+      <c r="A39" s="416"/>
+      <c r="B39" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C39" s="411"/>
-      <c r="D39" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C39" s="412"/>
+      <c r="D39" s="413"/>
       <c r="E39" s="436"/>
-      <c r="F39" s="419"/>
-      <c r="G39" s="421"/>
-      <c r="H39" s="425"/>
-      <c r="I39" s="426"/>
-      <c r="J39" s="427"/>
+      <c r="F39" s="420"/>
+      <c r="G39" s="422"/>
+      <c r="H39" s="426"/>
+      <c r="I39" s="427"/>
+      <c r="J39" s="428"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="414">
-        <v>1</v>
-      </c>
-      <c r="B40" s="432" t="s">
+      <c r="A40" s="415">
+        <f t="shared" ref="A40" si="6">A38+1</f>
+        <v>9</v>
+      </c>
+      <c r="B40" s="433" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="433"/>
-      <c r="D40" s="434"/>
-      <c r="E40" s="416" t="str">
+      <c r="C40" s="434"/>
+      <c r="D40" s="435"/>
+      <c r="E40" s="417" t="str">
         <f>Данные!C23</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F40" s="417"/>
-      <c r="G40" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F40" s="418"/>
+      <c r="G40" s="421">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="422"/>
-      <c r="I40" s="423"/>
-      <c r="J40" s="424"/>
+      <c r="H40" s="423"/>
+      <c r="I40" s="424"/>
+      <c r="J40" s="425"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="435"/>
-      <c r="B41" s="410" t="str">
+      <c r="A41" s="416"/>
+      <c r="B41" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C41" s="411"/>
-      <c r="D41" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C41" s="412"/>
+      <c r="D41" s="413"/>
       <c r="E41" s="436"/>
-      <c r="F41" s="419"/>
-      <c r="G41" s="421"/>
-      <c r="H41" s="425"/>
-      <c r="I41" s="426"/>
-      <c r="J41" s="427"/>
+      <c r="F41" s="420"/>
+      <c r="G41" s="422"/>
+      <c r="H41" s="426"/>
+      <c r="I41" s="427"/>
+      <c r="J41" s="428"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="414">
-        <v>1</v>
-      </c>
-      <c r="B42" s="432" t="s">
+      <c r="A42" s="415">
+        <f t="shared" ref="A42" si="7">A40+1</f>
+        <v>10</v>
+      </c>
+      <c r="B42" s="433" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="433"/>
-      <c r="D42" s="434"/>
-      <c r="E42" s="416" t="str">
+      <c r="C42" s="434"/>
+      <c r="D42" s="435"/>
+      <c r="E42" s="417" t="str">
         <f>Данные!C26</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F42" s="417"/>
-      <c r="G42" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F42" s="418"/>
+      <c r="G42" s="421">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="422"/>
-      <c r="I42" s="423"/>
-      <c r="J42" s="424"/>
+      <c r="H42" s="423"/>
+      <c r="I42" s="424"/>
+      <c r="J42" s="425"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="435"/>
-      <c r="B43" s="410" t="str">
+      <c r="A43" s="416"/>
+      <c r="B43" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C43" s="411"/>
-      <c r="D43" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C43" s="412"/>
+      <c r="D43" s="413"/>
       <c r="E43" s="436"/>
-      <c r="F43" s="419"/>
-      <c r="G43" s="421"/>
-      <c r="H43" s="425"/>
-      <c r="I43" s="426"/>
-      <c r="J43" s="427"/>
+      <c r="F43" s="420"/>
+      <c r="G43" s="422"/>
+      <c r="H43" s="426"/>
+      <c r="I43" s="427"/>
+      <c r="J43" s="428"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="414">
-        <v>1</v>
-      </c>
-      <c r="B44" s="432" t="s">
+      <c r="A44" s="415">
+        <f t="shared" ref="A44" si="8">A42+1</f>
+        <v>11</v>
+      </c>
+      <c r="B44" s="433" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="433"/>
-      <c r="D44" s="434"/>
-      <c r="E44" s="416">
+      <c r="C44" s="434"/>
+      <c r="D44" s="435"/>
+      <c r="E44" s="417">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="417"/>
-      <c r="G44" s="420">
+      <c r="F44" s="418"/>
+      <c r="G44" s="421">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="422"/>
-      <c r="I44" s="423"/>
-      <c r="J44" s="424"/>
+      <c r="H44" s="423"/>
+      <c r="I44" s="424"/>
+      <c r="J44" s="425"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="435"/>
-      <c r="B45" s="410" t="str">
+      <c r="A45" s="416"/>
+      <c r="B45" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C45" s="411"/>
-      <c r="D45" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C45" s="412"/>
+      <c r="D45" s="413"/>
       <c r="E45" s="436"/>
-      <c r="F45" s="419"/>
-      <c r="G45" s="421"/>
-      <c r="H45" s="425"/>
-      <c r="I45" s="426"/>
-      <c r="J45" s="427"/>
+      <c r="F45" s="420"/>
+      <c r="G45" s="422"/>
+      <c r="H45" s="426"/>
+      <c r="I45" s="427"/>
+      <c r="J45" s="428"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="414">
-        <v>1</v>
-      </c>
-      <c r="B46" s="432" t="s">
+      <c r="A46" s="415">
+        <f t="shared" ref="A46" si="9">A44+1</f>
+        <v>12</v>
+      </c>
+      <c r="B46" s="433" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="433"/>
-      <c r="D46" s="434"/>
-      <c r="E46" s="416" t="str">
+      <c r="C46" s="434"/>
+      <c r="D46" s="435"/>
+      <c r="E46" s="417" t="str">
         <f>Данные!C24</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F46" s="417"/>
-      <c r="G46" s="420">
+        <v>ХXI-В-28-1-250</v>
+      </c>
+      <c r="F46" s="418"/>
+      <c r="G46" s="421">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="422"/>
-      <c r="I46" s="423"/>
-      <c r="J46" s="424"/>
+      <c r="H46" s="423"/>
+      <c r="I46" s="424"/>
+      <c r="J46" s="425"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="435"/>
-      <c r="B47" s="410" t="str">
+      <c r="A47" s="416"/>
+      <c r="B47" s="411" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
-      </c>
-      <c r="C47" s="411"/>
-      <c r="D47" s="412"/>
+        <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
+      </c>
+      <c r="C47" s="412"/>
+      <c r="D47" s="413"/>
       <c r="E47" s="436"/>
-      <c r="F47" s="419"/>
-      <c r="G47" s="421"/>
-      <c r="H47" s="425"/>
-      <c r="I47" s="426"/>
-      <c r="J47" s="427"/>
+      <c r="F47" s="420"/>
+      <c r="G47" s="422"/>
+      <c r="H47" s="426"/>
+      <c r="I47" s="427"/>
+      <c r="J47" s="428"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -8688,13 +8648,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8809,18 +8769,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="441"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="442"/>
       <c r="J5" s="443"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8835,7 +8795,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="444"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -8845,8 +8805,8 @@
       <c r="H6" s="446"/>
       <c r="I6" s="442"/>
       <c r="J6" s="443"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="K6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8861,7 +8821,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="448"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -8873,11 +8833,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="451"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -8946,7 +8906,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93">
-        <v>293.7</v>
+        <v>209.45</v>
       </c>
       <c r="D10" s="93">
         <v>0.08</v>
@@ -8979,7 +8939,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="322">
-        <v>152.4</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="D11" s="98">
         <v>0.1</v>
@@ -9012,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="98">
-        <v>42.8</v>
+        <v>22.85</v>
       </c>
       <c r="D12" s="98">
         <v>0.05</v>
@@ -9111,7 +9071,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="386">
-        <v>245.9</v>
+        <v>114.2</v>
       </c>
       <c r="D15" s="98">
         <v>0.1</v>
@@ -9144,7 +9104,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="98">
-        <v>263.2</v>
+        <v>184.05</v>
       </c>
       <c r="D16" s="98">
         <v>0.05</v>
@@ -9171,58 +9131,58 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
-      <c r="B17" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="322">
-        <v>138</v>
-      </c>
-      <c r="D17" s="98">
+      <c r="B17" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="105">
+        <v>52.95</v>
+      </c>
+      <c r="D17" s="105">
         <v>0.05</v>
       </c>
       <c r="E17" s="98">
-        <v>-0.05</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="328"/>
-      <c r="M17" s="328"/>
-      <c r="N17" s="328"/>
-      <c r="O17" s="328"/>
-      <c r="P17" s="328"/>
-      <c r="Q17" s="328"/>
-      <c r="R17" s="329"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="106"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>109</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="105">
+        <v>25.7</v>
       </c>
       <c r="D18" s="105">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E18" s="98">
-        <v>0</v>
-      </c>
-      <c r="F18" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>36</v>
+        <v>-0.02</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="H18" s="106"/>
       <c r="I18" s="105"/>
@@ -9240,16 +9200,16 @@
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="105">
-        <v>26.2</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>114</v>
       </c>
       <c r="D19" s="105">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E19" s="98">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="F19" s="51" t="s">
         <v>19</v>
@@ -9270,25 +9230,25 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>109</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="323">
+        <v>0.2</v>
       </c>
       <c r="D20" s="105">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E20" s="98">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="F20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>22</v>
+      <c r="G20" s="248" t="s">
+        <v>37</v>
       </c>
       <c r="H20" s="106"/>
       <c r="I20" s="105"/>
@@ -9303,10 +9263,10 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="323">
         <v>0.2</v>
@@ -9336,25 +9296,19 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
-      <c r="B22" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="323">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="105">
-        <v>0.02</v>
-      </c>
-      <c r="E22" s="98">
-        <v>-0.02</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="248" t="s">
-        <v>37</v>
+      <c r="B22" s="452" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="453"/>
+      <c r="D22" s="453"/>
+      <c r="E22" s="454"/>
+      <c r="F22" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="306" t="s">
+        <v>46</v>
       </c>
       <c r="H22" s="106"/>
       <c r="I22" s="105"/>
@@ -9369,82 +9323,55 @@
       <c r="R22" s="331"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78"/>
-      <c r="B23" s="452" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="453"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="454"/>
+      <c r="B23" s="437" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="438"/>
+      <c r="D23" s="438"/>
+      <c r="E23" s="439"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="306" t="s">
+      <c r="G23" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="330"/>
-      <c r="M23" s="330"/>
-      <c r="N23" s="330"/>
-      <c r="O23" s="330"/>
-      <c r="P23" s="330"/>
-      <c r="Q23" s="330"/>
-      <c r="R23" s="331"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="332"/>
+      <c r="M23" s="332"/>
+      <c r="N23" s="332"/>
+      <c r="O23" s="332"/>
+      <c r="P23" s="332"/>
+      <c r="Q23" s="332"/>
+      <c r="R23" s="333"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
-      <c r="B24" s="437" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="438"/>
-      <c r="D24" s="438"/>
-      <c r="E24" s="439"/>
-      <c r="F24" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="332"/>
-      <c r="M24" s="332"/>
-      <c r="N24" s="332"/>
-      <c r="O24" s="332"/>
-      <c r="P24" s="332"/>
-      <c r="Q24" s="332"/>
-      <c r="R24" s="333"/>
-      <c r="S24" s="86"/>
-    </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="114"/>
-    </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="114"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="B2:D4"/>
@@ -9453,7 +9380,7 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -9466,9 +9393,9 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:R24">
+  <conditionalFormatting sqref="H10:R23">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -9493,7 +9420,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15:E15"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9611,18 +9538,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="480"/>
       <c r="J5" s="481"/>
       <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9637,7 +9564,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -9648,7 +9575,7 @@
       <c r="I6" s="480"/>
       <c r="J6" s="481"/>
       <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9663,7 +9590,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -9675,11 +9602,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9747,8 +9674,8 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93" t="s">
-        <v>110</v>
+      <c r="C10" s="93">
+        <v>52.85</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -9847,7 +9774,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="386">
-        <v>50.5</v>
+        <v>45.4</v>
       </c>
       <c r="D13" s="98">
         <v>0.1</v>
@@ -9877,7 +9804,7 @@
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="452" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" s="453"/>
       <c r="D14" s="453"/>
@@ -10008,10 +9935,10 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10126,18 +10053,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="441"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="442"/>
       <c r="J5" s="443"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10152,7 +10079,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="444"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -10162,8 +10089,8 @@
       <c r="H6" s="446"/>
       <c r="I6" s="442"/>
       <c r="J6" s="443"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="K6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10178,7 +10105,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="448"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -10190,11 +10117,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="451"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10266,7 +10193,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93">
-        <v>265.95</v>
+        <v>199.45</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -10374,7 +10301,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="386">
-        <v>157</v>
+        <v>109.1</v>
       </c>
       <c r="D13" s="98">
         <v>0.1</v>
@@ -10410,7 +10337,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="98">
-        <v>246</v>
+        <v>172.5</v>
       </c>
       <c r="D14" s="98">
         <v>0.05</v>
@@ -10518,7 +10445,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="105">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="D17" s="105">
         <v>0.05</v>
@@ -10553,8 +10480,8 @@
       <c r="B18" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="105" t="s">
-        <v>114</v>
+      <c r="C18" s="105">
+        <v>35</v>
       </c>
       <c r="D18" s="105">
         <v>0.05</v>
@@ -10590,7 +10517,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="361">
-        <v>77.8</v>
+        <v>65.2</v>
       </c>
       <c r="D19" s="105">
         <v>0.02</v>
@@ -10626,7 +10553,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="323">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D20" s="105">
         <v>0.02</v>
@@ -10677,9 +10604,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -10695,6 +10619,9 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10719,11 +10646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10838,18 +10765,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="441"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="442"/>
       <c r="J5" s="443"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10864,7 +10791,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="444"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -10874,8 +10801,8 @@
       <c r="H6" s="446"/>
       <c r="I6" s="442"/>
       <c r="J6" s="443"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="K6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10890,7 +10817,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="448"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -10902,11 +10829,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="451"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10974,8 +10901,8 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="387" t="s">
-        <v>112</v>
+      <c r="C10" s="387">
+        <v>34.93</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -11235,13 +11162,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11356,18 +11283,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="480"/>
       <c r="J5" s="481"/>
       <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="513"/>
       <c r="N5" s="514"/>
       <c r="O5" s="514"/>
@@ -11382,7 +11309,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -11393,7 +11320,7 @@
       <c r="I6" s="480"/>
       <c r="J6" s="481"/>
       <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="513"/>
       <c r="N6" s="514"/>
       <c r="O6" s="514"/>
@@ -11408,7 +11335,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -11420,11 +11347,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="513"/>
       <c r="N7" s="514"/>
       <c r="O7" s="514"/>
@@ -11526,7 +11453,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="131">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="D11" s="131">
         <v>0.05</v>
@@ -11559,7 +11486,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="131">
-        <v>26.3</v>
+        <v>25</v>
       </c>
       <c r="D12" s="131">
         <v>0.05</v>
@@ -11691,7 +11618,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="98">
-        <v>57.8</v>
+        <v>48</v>
       </c>
       <c r="D16" s="98">
         <v>0.1</v>
@@ -11724,7 +11651,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="98">
-        <v>28</v>
+        <v>16.45</v>
       </c>
       <c r="D17" s="98">
         <v>0.05</v>
@@ -11787,18 +11714,18 @@
     <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="98">
-        <v>28.4</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="386">
+        <v>27.95</v>
       </c>
       <c r="D19" s="98">
-        <v>0.05</v>
-      </c>
-      <c r="E19" s="103">
+        <v>0</v>
+      </c>
+      <c r="E19" s="98">
         <v>-0.05</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="389" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="55" t="s">
@@ -11817,56 +11744,89 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="437" t="s">
+      <c r="B20" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="98">
+        <v>27.25</v>
+      </c>
+      <c r="D20" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="103">
+        <v>-0.05</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="86"/>
+    </row>
+    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="437" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="438"/>
-      <c r="D20" s="438"/>
-      <c r="E20" s="439"/>
-      <c r="F20" s="116" t="s">
+      <c r="C21" s="438"/>
+      <c r="D21" s="438"/>
+      <c r="E21" s="439"/>
+      <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="86"/>
-    </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="114"/>
-    </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="123"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="86"/>
+    </row>
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="114"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -11882,7 +11842,7 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -11890,7 +11850,7 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:R20">
+  <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -11915,7 +11875,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12029,18 +11989,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="480"/>
       <c r="J5" s="481"/>
       <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12055,7 +12015,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -12066,7 +12026,7 @@
       <c r="I6" s="480"/>
       <c r="J6" s="481"/>
       <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12081,7 +12041,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -12093,11 +12053,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12166,7 +12126,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="98">
-        <v>26.25</v>
+        <v>24.7</v>
       </c>
       <c r="D10" s="98">
         <v>0.05</v>
@@ -12199,7 +12159,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="98">
-        <v>21.55</v>
+        <v>19</v>
       </c>
       <c r="D11" s="98">
         <v>0.02</v>
@@ -12298,7 +12258,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="98">
-        <v>15.5</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="D14" s="98">
         <v>0</v>
@@ -12573,18 +12533,18 @@
         <v>13</v>
       </c>
       <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="D5" s="400" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="401"/>
+      <c r="H5" s="402"/>
       <c r="I5" s="480"/>
       <c r="J5" s="481"/>
       <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="L5" s="402"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -12599,7 +12559,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="394" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
@@ -12610,7 +12570,7 @@
       <c r="I6" s="480"/>
       <c r="J6" s="481"/>
       <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="L6" s="402"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -12625,7 +12585,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="D7" s="403">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
@@ -12637,11 +12597,11 @@
         <v>15</v>
       </c>
       <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="K7" s="391">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="392"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -12710,7 +12670,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="190">
-        <v>76.599999999999994</v>
+        <v>70.72</v>
       </c>
       <c r="D10" s="190">
         <v>0.05</v>
@@ -12745,7 +12705,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="192">
-        <v>21.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D11" s="192">
         <v>0.02</v>
@@ -12943,7 +12903,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="192">
-        <v>32.799999999999997</v>
+        <v>34.92</v>
       </c>
       <c r="D17" s="192">
         <v>0.05</v>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-250-6 (Крис1а)/от 23.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-250-6 (Крис1а)/от 23.10.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-1-250-6 (Крис1а)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2553E6-037E-4A9F-96D6-AA0E27FDAA31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -34,7 +35,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Чист. форма'!$A$1:$S$24</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -389,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3025,6 +3033,12 @@
     <xf numFmtId="49" fontId="41" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3069,11 +3083,74 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3084,60 +3161,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3147,20 +3170,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3212,76 +3292,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3305,75 +3382,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3400,6 +3408,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3410,12 +3421,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3426,16 +3437,13 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -3723,7 +3731,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3769,7 +3783,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3814,7 +3834,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3858,7 +3884,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3907,7 +3939,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3953,7 +3991,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3997,7 +4041,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4041,7 +4091,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4090,7 +4146,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4136,7 +4198,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4180,7 +4248,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4224,7 +4298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4273,7 +4353,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4319,7 +4405,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4363,7 +4455,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4407,7 +4505,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4456,7 +4560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4502,7 +4612,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4546,7 +4662,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4590,7 +4712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4639,7 +4767,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4683,7 +4817,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4726,7 +4866,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4772,7 +4918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4821,7 +4973,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -4867,7 +5025,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4911,7 +5075,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4955,7 +5125,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5004,7 +5180,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5050,7 +5232,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5094,7 +5282,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5138,7 +5332,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5187,7 +5387,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5233,7 +5439,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5277,7 +5489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5321,7 +5539,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5429,6 +5653,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5464,6 +5705,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5639,90 +5897,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="395" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="394" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="396" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="395"/>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="396"/>
+      <c r="B2" s="397"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="398"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="370" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="398" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="400" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="400" t="s">
+      <c r="B4" s="401"/>
+      <c r="C4" s="401"/>
+      <c r="D4" s="401"/>
+      <c r="E4" s="401"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="401"/>
-      <c r="C5" s="401"/>
-      <c r="D5" s="401"/>
-      <c r="E5" s="402"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="393" t="s">
+      <c r="B5" s="403"/>
+      <c r="C5" s="403"/>
+      <c r="D5" s="403"/>
+      <c r="E5" s="404"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="395" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="397"/>
-      <c r="C7" s="397"/>
-      <c r="D7" s="397"/>
-      <c r="E7" s="397"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="403"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="404"/>
-      <c r="D8" s="404"/>
-      <c r="E8" s="405"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="393" t="s">
+      <c r="B7" s="399"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="405"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="406"/>
+      <c r="D8" s="406"/>
+      <c r="E8" s="407"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="395" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="393"/>
+      <c r="B10" s="395"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -5732,36 +5990,36 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="391"/>
-      <c r="B11" s="392"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="393"/>
+      <c r="B11" s="394"/>
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="406" t="s">
+      <c r="F11" s="390" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="406"/>
-      <c r="H11" s="406"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="407" t="s">
+      <c r="G11" s="390"/>
+      <c r="H11" s="390"/>
+      <c r="I11" s="390"/>
+      <c r="J11" s="391" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="407"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="406" t="s">
+      <c r="K11" s="391"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="390" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="406"/>
-      <c r="H12" s="406"/>
-      <c r="I12" s="406"/>
-      <c r="J12" s="407" t="s">
+      <c r="G12" s="390"/>
+      <c r="H12" s="390"/>
+      <c r="I12" s="390"/>
+      <c r="J12" s="391" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="407"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="391"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
         <v>88</v>
       </c>
@@ -5771,18 +6029,18 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="406" t="s">
+      <c r="F13" s="390" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="406"/>
-      <c r="H13" s="406"/>
-      <c r="I13" s="406"/>
-      <c r="J13" s="407" t="s">
+      <c r="G13" s="390"/>
+      <c r="H13" s="390"/>
+      <c r="I13" s="390"/>
+      <c r="J13" s="391" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="407"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="391"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
         <v>43</v>
       </c>
@@ -5793,7 +6051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="375" t="s">
         <v>44</v>
       </c>
@@ -5804,7 +6062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="375" t="s">
         <v>38</v>
       </c>
@@ -5815,7 +6073,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="375" t="s">
         <v>23</v>
       </c>
@@ -5826,7 +6084,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="375" t="s">
         <v>47</v>
       </c>
@@ -5837,7 +6095,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="375" t="s">
         <v>90</v>
       </c>
@@ -5848,7 +6106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="375" t="s">
         <v>51</v>
       </c>
@@ -5859,7 +6117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="375" t="s">
         <v>53</v>
       </c>
@@ -5870,7 +6128,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="375" t="s">
         <v>91</v>
       </c>
@@ -5879,7 +6137,7 @@
       </c>
       <c r="C22" s="382"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="375" t="s">
         <v>56</v>
       </c>
@@ -5890,7 +6148,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="375" t="s">
         <v>70</v>
       </c>
@@ -5901,7 +6159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="375" t="s">
         <v>92</v>
       </c>
@@ -5910,7 +6168,7 @@
       </c>
       <c r="C25" s="382"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="377" t="s">
         <v>55</v>
       </c>
@@ -5921,7 +6179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="377" t="s">
         <v>106</v>
       </c>
@@ -5930,29 +6188,23 @@
       </c>
       <c r="C27" s="385"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="381"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="390" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="392" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="390"/>
-      <c r="C29" s="390"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="392"/>
+      <c r="C29" s="392"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -5962,6 +6214,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5969,7 +6227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -5979,20 +6237,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="208" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="208" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="208" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="208" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="208" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="208" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="208" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="208" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="208" customWidth="1"/>
     <col min="8" max="18" width="9" style="208" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="208" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="208"/>
+    <col min="19" max="19" width="1.42578125" style="208" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="204"/>
       <c r="B1" s="205"/>
       <c r="C1" s="206"/>
@@ -6013,49 +6271,49 @@
       <c r="R1" s="206"/>
       <c r="S1" s="207"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="479"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="494" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="495"/>
+      <c r="K2" s="498">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="499"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="521"/>
-      <c r="Q2" s="521"/>
+      <c r="P2" s="518"/>
+      <c r="Q2" s="518"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="491" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="500"/>
+      <c r="L3" s="501"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -6064,11 +6322,11 @@
       <c r="R3" s="217"/>
       <c r="S3" s="214"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="487"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6085,24 +6343,24 @@
       <c r="R4" s="217"/>
       <c r="S4" s="214"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="502"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="504"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -6111,24 +6369,24 @@
       <c r="R5" s="217"/>
       <c r="S5" s="214"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="502"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -6137,29 +6395,29 @@
       <c r="R6" s="217"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="403">
+      <c r="C7" s="506"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="391">
+      <c r="J7" s="506"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -6168,7 +6426,7 @@
       <c r="R7" s="217"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="219"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
@@ -6189,7 +6447,7 @@
       <c r="R8" s="224"/>
       <c r="S8" s="225"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="226"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6222,7 +6480,7 @@
       <c r="R9" s="228"/>
       <c r="S9" s="229"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="219"/>
       <c r="B10" s="230" t="s">
         <v>25</v>
@@ -6255,7 +6513,7 @@
       <c r="R10" s="234"/>
       <c r="S10" s="225"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="219"/>
       <c r="B11" s="235" t="s">
         <v>26</v>
@@ -6288,7 +6546,7 @@
       <c r="R11" s="239"/>
       <c r="S11" s="225"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="219"/>
       <c r="B12" s="235" t="s">
         <v>2</v>
@@ -6321,7 +6579,7 @@
       <c r="R12" s="239"/>
       <c r="S12" s="225"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="219"/>
       <c r="B13" s="235" t="s">
         <v>3</v>
@@ -6354,7 +6612,7 @@
       <c r="R13" s="239"/>
       <c r="S13" s="225"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="219"/>
       <c r="B14" s="235" t="s">
         <v>27</v>
@@ -6387,7 +6645,7 @@
       <c r="R14" s="239"/>
       <c r="S14" s="225"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="219"/>
       <c r="B15" s="235" t="s">
         <v>28</v>
@@ -6420,7 +6678,7 @@
       <c r="R15" s="239"/>
       <c r="S15" s="225"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="219"/>
       <c r="B16" s="235" t="s">
         <v>9</v>
@@ -6453,7 +6711,7 @@
       <c r="R16" s="239"/>
       <c r="S16" s="225"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="219"/>
       <c r="B17" s="235" t="s">
         <v>5</v>
@@ -6486,14 +6744,14 @@
       <c r="R17" s="239"/>
       <c r="S17" s="225"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="518" t="s">
+      <c r="B18" s="519" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="519"/>
-      <c r="D18" s="519"/>
-      <c r="E18" s="520"/>
+      <c r="C18" s="520"/>
+      <c r="D18" s="520"/>
+      <c r="E18" s="521"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -6513,7 +6771,7 @@
       <c r="R18" s="243"/>
       <c r="S18" s="225"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="244"/>
       <c r="B19" s="245"/>
       <c r="C19" s="245"/>
@@ -6534,17 +6792,9 @@
       <c r="R19" s="245"/>
       <c r="S19" s="247"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -6556,6 +6806,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6595,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6605,20 +6863,20 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -6639,26 +6897,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="479"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="494" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="495"/>
+      <c r="K2" s="498">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="499"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -6667,21 +6925,21 @@
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="491" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="500"/>
+      <c r="L3" s="501"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -6690,11 +6948,11 @@
       <c r="R3" s="141"/>
       <c r="S3" s="138"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="487"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6711,24 +6969,24 @@
       <c r="R4" s="141"/>
       <c r="S4" s="138"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="502"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="504"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -6737,24 +6995,24 @@
       <c r="R5" s="141"/>
       <c r="S5" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="502"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -6763,29 +7021,29 @@
       <c r="R6" s="141"/>
       <c r="S6" s="138"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="403">
+      <c r="C7" s="506"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="391">
+      <c r="J7" s="506"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -6794,7 +7052,7 @@
       <c r="R7" s="141"/>
       <c r="S7" s="138"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="143"/>
       <c r="C8" s="144"/>
@@ -6815,7 +7073,7 @@
       <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="148"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6848,7 +7106,7 @@
       <c r="R9" s="151"/>
       <c r="S9" s="152"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="153"/>
       <c r="B10" s="154" t="s">
         <v>25</v>
@@ -6881,7 +7139,7 @@
       <c r="R10" s="156"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="153"/>
       <c r="B11" s="154" t="s">
         <v>26</v>
@@ -6914,7 +7172,7 @@
       <c r="R11" s="156"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="153"/>
       <c r="B12" s="154" t="s">
         <v>2</v>
@@ -6947,7 +7205,7 @@
       <c r="R12" s="156"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="153"/>
       <c r="B13" s="154" t="s">
         <v>3</v>
@@ -6980,7 +7238,7 @@
       <c r="R13" s="156"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="153"/>
       <c r="B14" s="154" t="s">
         <v>27</v>
@@ -7013,7 +7271,7 @@
       <c r="R14" s="156"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>28</v>
@@ -7046,7 +7304,7 @@
       <c r="R15" s="156"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="153"/>
       <c r="B16" s="154" t="s">
         <v>4</v>
@@ -7079,7 +7337,7 @@
       <c r="R16" s="156"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -7100,7 +7358,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -7121,7 +7379,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -7142,7 +7400,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
@@ -7163,9 +7421,20 @@
       <c r="R20" s="113"/>
       <c r="S20" s="114"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7173,17 +7442,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7203,7 +7461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7213,20 +7471,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="265" customWidth="1"/>
     <col min="2" max="2" width="5" style="265" customWidth="1"/>
     <col min="3" max="3" width="11" style="265" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="265" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="265" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="265" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="265" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="265" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="265" customWidth="1"/>
     <col min="8" max="18" width="9" style="265" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="265" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="265"/>
+    <col min="19" max="19" width="1.42578125" style="265" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="265"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="261"/>
       <c r="B1" s="262"/>
       <c r="C1" s="263"/>
@@ -7247,49 +7505,49 @@
       <c r="R1" s="263"/>
       <c r="S1" s="264"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="479"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="494" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="523">
+      <c r="J2" s="495"/>
+      <c r="K2" s="524">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="524"/>
+      <c r="L2" s="525"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="527"/>
-      <c r="Q2" s="527"/>
+      <c r="P2" s="523"/>
+      <c r="Q2" s="523"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="491" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="525"/>
-      <c r="L3" s="526"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="526"/>
+      <c r="L3" s="527"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -7298,11 +7556,11 @@
       <c r="R3" s="274"/>
       <c r="S3" s="271"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="487"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7319,24 +7577,24 @@
       <c r="R4" s="274"/>
       <c r="S4" s="271"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="502"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="504"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -7345,24 +7603,24 @@
       <c r="R5" s="274"/>
       <c r="S5" s="271"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="502"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -7371,29 +7629,29 @@
       <c r="R6" s="274"/>
       <c r="S6" s="271"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="403">
+      <c r="C7" s="506"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="391">
+      <c r="J7" s="506"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -7402,7 +7660,7 @@
       <c r="R7" s="274"/>
       <c r="S7" s="271"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="276"/>
       <c r="B8" s="277"/>
       <c r="C8" s="278"/>
@@ -7423,7 +7681,7 @@
       <c r="R8" s="281"/>
       <c r="S8" s="282"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="283"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -7456,7 +7714,7 @@
       <c r="R9" s="352"/>
       <c r="S9" s="285"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="276"/>
       <c r="B10" s="286" t="s">
         <v>25</v>
@@ -7489,7 +7747,7 @@
       <c r="R10" s="354"/>
       <c r="S10" s="282"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="276"/>
       <c r="B11" s="290" t="s">
         <v>26</v>
@@ -7522,7 +7780,7 @@
       <c r="R11" s="355"/>
       <c r="S11" s="282"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="276"/>
       <c r="B12" s="290" t="s">
         <v>2</v>
@@ -7555,7 +7813,7 @@
       <c r="R12" s="357"/>
       <c r="S12" s="282"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="276"/>
       <c r="B13" s="290" t="s">
         <v>28</v>
@@ -7588,7 +7846,7 @@
       <c r="R13" s="357"/>
       <c r="S13" s="282"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="276"/>
       <c r="B14" s="290" t="s">
         <v>4</v>
@@ -7621,7 +7879,7 @@
       <c r="R14" s="357"/>
       <c r="S14" s="282"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="276"/>
       <c r="B15" s="296"/>
       <c r="C15" s="297"/>
@@ -7642,7 +7900,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="282"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="299"/>
       <c r="B16" s="300"/>
       <c r="C16" s="300"/>
@@ -7663,9 +7921,11 @@
       <c r="R16" s="300"/>
       <c r="S16" s="302"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -7682,8 +7942,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7709,25 +7967,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A47"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="307"/>
+    <col min="1" max="3" width="9.140625" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="307"/>
-    <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="307"/>
+    <col min="5" max="6" width="9.140625" style="307"/>
+    <col min="7" max="7" width="9.140625" style="307" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="307" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="307" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="316" t="s">
         <v>58</v>
       </c>
@@ -7736,7 +7994,7 @@
       <c r="J2" s="317"/>
       <c r="K2" s="317"/>
     </row>
-    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="316" t="s">
         <v>102</v>
       </c>
@@ -7745,7 +8003,7 @@
       <c r="J3" s="317"/>
       <c r="K3" s="317"/>
     </row>
-    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="316" t="s">
         <v>105</v>
       </c>
@@ -7754,8 +8012,8 @@
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
     </row>
-    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="368"/>
       <c r="H6" s="316" t="s">
         <v>103</v>
@@ -7763,12 +8021,12 @@
       <c r="I6" s="317"/>
       <c r="J6" s="317"/>
     </row>
-    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
       <c r="J7" s="317"/>
     </row>
-    <row r="8" spans="1:11" s="367" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="310" t="s">
         <v>59</v>
       </c>
@@ -7778,50 +8036,50 @@
       </c>
       <c r="J8" s="317"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="409" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="432" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="409"/>
-      <c r="C11" s="409"/>
-      <c r="D11" s="409"/>
-      <c r="E11" s="409"/>
-      <c r="F11" s="409"/>
-      <c r="G11" s="409"/>
-      <c r="H11" s="409"/>
-      <c r="I11" s="409"/>
-      <c r="J11" s="409"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="408" t="s">
+      <c r="B11" s="432"/>
+      <c r="C11" s="432"/>
+      <c r="D11" s="432"/>
+      <c r="E11" s="432"/>
+      <c r="F11" s="432"/>
+      <c r="G11" s="432"/>
+      <c r="H11" s="432"/>
+      <c r="I11" s="432"/>
+      <c r="J11" s="432"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="431" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="408"/>
-      <c r="C12" s="408"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="408"/>
-      <c r="F12" s="408"/>
-      <c r="G12" s="408"/>
-      <c r="H12" s="408"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="408"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="410" t="str">
+      <c r="B12" s="431"/>
+      <c r="C12" s="431"/>
+      <c r="D12" s="431"/>
+      <c r="E12" s="431"/>
+      <c r="F12" s="431"/>
+      <c r="G12" s="431"/>
+      <c r="H12" s="431"/>
+      <c r="I12" s="431"/>
+      <c r="J12" s="431"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="433" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="B13" s="409"/>
-      <c r="C13" s="409"/>
-      <c r="D13" s="409"/>
-      <c r="E13" s="409"/>
-      <c r="F13" s="409"/>
-      <c r="G13" s="409"/>
-      <c r="H13" s="409"/>
-      <c r="I13" s="409"/>
-      <c r="J13" s="409"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="432"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="432"/>
+      <c r="E13" s="432"/>
+      <c r="F13" s="432"/>
+      <c r="G13" s="432"/>
+      <c r="H13" s="432"/>
+      <c r="I13" s="432"/>
+      <c r="J13" s="432"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
         <v>60</v>
       </c>
@@ -7838,7 +8096,7 @@
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="311" t="s">
         <v>96</v>
       </c>
@@ -7852,7 +8110,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="312"/>
     </row>
-    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="319" t="s">
         <v>61</v>
       </c>
@@ -7873,7 +8131,7 @@
       </c>
       <c r="J17" s="312"/>
     </row>
-    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="319" t="s">
         <v>61</v>
       </c>
@@ -7894,7 +8152,7 @@
       </c>
       <c r="J18" s="312"/>
     </row>
-    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" s="320"/>
@@ -7912,7 +8170,7 @@
       </c>
       <c r="J19" s="312"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="311" t="s">
         <v>75</v>
       </c>
@@ -7929,7 +8187,7 @@
       </c>
       <c r="J20" s="312"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="311" t="s">
         <v>76</v>
       </c>
@@ -7943,496 +8201,496 @@
       <c r="I21" s="311"/>
       <c r="J21" s="312"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="414" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="429" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="414" t="s">
+      <c r="B22" s="429" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="414"/>
-      <c r="D22" s="414"/>
-      <c r="E22" s="414" t="s">
+      <c r="C22" s="429"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="429" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="414"/>
-      <c r="G22" s="432" t="s">
+      <c r="F22" s="429"/>
+      <c r="G22" s="430" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="414" t="s">
+      <c r="H22" s="429" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="414"/>
-      <c r="J22" s="414"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="414"/>
-      <c r="B23" s="414"/>
-      <c r="C23" s="414"/>
-      <c r="D23" s="414"/>
-      <c r="E23" s="414"/>
-      <c r="F23" s="414"/>
-      <c r="G23" s="432"/>
-      <c r="H23" s="414"/>
-      <c r="I23" s="414"/>
-      <c r="J23" s="414"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="415">
+      <c r="I22" s="429"/>
+      <c r="J22" s="429"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="429"/>
+      <c r="B23" s="429"/>
+      <c r="C23" s="429"/>
+      <c r="D23" s="429"/>
+      <c r="E23" s="429"/>
+      <c r="F23" s="429"/>
+      <c r="G23" s="430"/>
+      <c r="H23" s="429"/>
+      <c r="I23" s="429"/>
+      <c r="J23" s="429"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="408">
         <v>1</v>
       </c>
-      <c r="B24" s="429" t="s">
+      <c r="B24" s="434" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="430"/>
-      <c r="D24" s="431"/>
-      <c r="E24" s="417" t="str">
+      <c r="C24" s="435"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="413" t="str">
         <f>Данные!C14</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F24" s="418"/>
-      <c r="G24" s="421">
+      <c r="F24" s="414"/>
+      <c r="G24" s="417">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="423"/>
-      <c r="I24" s="424"/>
-      <c r="J24" s="425"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="416"/>
-      <c r="B25" s="411" t="str">
+      <c r="H24" s="419"/>
+      <c r="I24" s="420"/>
+      <c r="J24" s="421"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="409"/>
+      <c r="B25" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C25" s="412"/>
-      <c r="D25" s="413"/>
-      <c r="E25" s="419"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="422"/>
-      <c r="H25" s="426"/>
-      <c r="I25" s="427"/>
-      <c r="J25" s="428"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="415">
+      <c r="C25" s="426"/>
+      <c r="D25" s="427"/>
+      <c r="E25" s="428"/>
+      <c r="F25" s="416"/>
+      <c r="G25" s="418"/>
+      <c r="H25" s="422"/>
+      <c r="I25" s="423"/>
+      <c r="J25" s="424"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="408">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="433" t="s">
+      <c r="B26" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="434"/>
-      <c r="D26" s="435"/>
-      <c r="E26" s="417" t="str">
+      <c r="C26" s="411"/>
+      <c r="D26" s="412"/>
+      <c r="E26" s="413" t="str">
         <f>Данные!C15</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="421">
+      <c r="F26" s="414"/>
+      <c r="G26" s="417">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="423"/>
-      <c r="I26" s="424"/>
-      <c r="J26" s="425"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="416"/>
-      <c r="B27" s="411" t="str">
+      <c r="H26" s="419"/>
+      <c r="I26" s="420"/>
+      <c r="J26" s="421"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="409"/>
+      <c r="B27" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C27" s="412"/>
-      <c r="D27" s="413"/>
-      <c r="E27" s="419"/>
-      <c r="F27" s="420"/>
-      <c r="G27" s="422"/>
-      <c r="H27" s="426"/>
-      <c r="I27" s="427"/>
-      <c r="J27" s="428"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="415">
+      <c r="C27" s="426"/>
+      <c r="D27" s="427"/>
+      <c r="E27" s="428"/>
+      <c r="F27" s="416"/>
+      <c r="G27" s="418"/>
+      <c r="H27" s="422"/>
+      <c r="I27" s="423"/>
+      <c r="J27" s="424"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="408">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="433" t="s">
+      <c r="B28" s="410" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="434"/>
-      <c r="D28" s="435"/>
-      <c r="E28" s="417" t="str">
+      <c r="C28" s="411"/>
+      <c r="D28" s="412"/>
+      <c r="E28" s="413" t="str">
         <f>Данные!C16</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F28" s="418"/>
-      <c r="G28" s="421">
+      <c r="F28" s="414"/>
+      <c r="G28" s="417">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="423"/>
-      <c r="I28" s="424"/>
-      <c r="J28" s="425"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="416"/>
-      <c r="B29" s="411" t="str">
+      <c r="H28" s="419"/>
+      <c r="I28" s="420"/>
+      <c r="J28" s="421"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="409"/>
+      <c r="B29" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C29" s="412"/>
-      <c r="D29" s="413"/>
-      <c r="E29" s="419"/>
-      <c r="F29" s="420"/>
-      <c r="G29" s="422"/>
-      <c r="H29" s="426"/>
-      <c r="I29" s="427"/>
-      <c r="J29" s="428"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="415">
+      <c r="C29" s="426"/>
+      <c r="D29" s="427"/>
+      <c r="E29" s="428"/>
+      <c r="F29" s="416"/>
+      <c r="G29" s="418"/>
+      <c r="H29" s="422"/>
+      <c r="I29" s="423"/>
+      <c r="J29" s="424"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="408">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="433" t="s">
+      <c r="B30" s="410" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="434"/>
-      <c r="D30" s="435"/>
-      <c r="E30" s="417" t="str">
+      <c r="C30" s="411"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="413" t="str">
         <f>Данные!C17</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F30" s="418"/>
-      <c r="G30" s="421">
+      <c r="F30" s="414"/>
+      <c r="G30" s="417">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="423"/>
-      <c r="I30" s="424"/>
-      <c r="J30" s="425"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="416"/>
-      <c r="B31" s="411" t="str">
+      <c r="H30" s="419"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="421"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="409"/>
+      <c r="B31" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C31" s="412"/>
-      <c r="D31" s="413"/>
-      <c r="E31" s="436"/>
-      <c r="F31" s="420"/>
-      <c r="G31" s="422"/>
-      <c r="H31" s="426"/>
-      <c r="I31" s="427"/>
-      <c r="J31" s="428"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="415">
+      <c r="C31" s="426"/>
+      <c r="D31" s="427"/>
+      <c r="E31" s="415"/>
+      <c r="F31" s="416"/>
+      <c r="G31" s="418"/>
+      <c r="H31" s="422"/>
+      <c r="I31" s="423"/>
+      <c r="J31" s="424"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="408">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="433" t="s">
+      <c r="B32" s="410" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="434"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="417" t="str">
+      <c r="C32" s="411"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="413" t="str">
         <f>Данные!C18</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F32" s="418"/>
-      <c r="G32" s="421">
+      <c r="F32" s="414"/>
+      <c r="G32" s="417">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="423"/>
-      <c r="I32" s="424"/>
-      <c r="J32" s="425"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="416"/>
-      <c r="B33" s="411" t="str">
+      <c r="H32" s="419"/>
+      <c r="I32" s="420"/>
+      <c r="J32" s="421"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="409"/>
+      <c r="B33" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C33" s="412"/>
-      <c r="D33" s="413"/>
-      <c r="E33" s="436"/>
-      <c r="F33" s="420"/>
-      <c r="G33" s="422"/>
-      <c r="H33" s="426"/>
-      <c r="I33" s="427"/>
-      <c r="J33" s="428"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="415">
+      <c r="C33" s="426"/>
+      <c r="D33" s="427"/>
+      <c r="E33" s="415"/>
+      <c r="F33" s="416"/>
+      <c r="G33" s="418"/>
+      <c r="H33" s="422"/>
+      <c r="I33" s="423"/>
+      <c r="J33" s="424"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="408">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="433" t="s">
+      <c r="B34" s="410" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="434"/>
-      <c r="D34" s="435"/>
-      <c r="E34" s="417" t="str">
+      <c r="C34" s="411"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="413" t="str">
         <f>Данные!C19</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F34" s="418"/>
-      <c r="G34" s="421">
+      <c r="F34" s="414"/>
+      <c r="G34" s="417">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="423"/>
-      <c r="I34" s="424"/>
-      <c r="J34" s="425"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="416"/>
-      <c r="B35" s="411" t="str">
+      <c r="H34" s="419"/>
+      <c r="I34" s="420"/>
+      <c r="J34" s="421"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="409"/>
+      <c r="B35" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C35" s="412"/>
-      <c r="D35" s="413"/>
-      <c r="E35" s="436"/>
-      <c r="F35" s="420"/>
-      <c r="G35" s="422"/>
-      <c r="H35" s="426"/>
-      <c r="I35" s="427"/>
-      <c r="J35" s="428"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="415">
+      <c r="C35" s="426"/>
+      <c r="D35" s="427"/>
+      <c r="E35" s="415"/>
+      <c r="F35" s="416"/>
+      <c r="G35" s="418"/>
+      <c r="H35" s="422"/>
+      <c r="I35" s="423"/>
+      <c r="J35" s="424"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="408">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="433" t="s">
+      <c r="B36" s="410" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="434"/>
-      <c r="D36" s="435"/>
-      <c r="E36" s="417" t="str">
+      <c r="C36" s="411"/>
+      <c r="D36" s="412"/>
+      <c r="E36" s="413" t="str">
         <f>Данные!C20</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F36" s="418"/>
-      <c r="G36" s="421">
+      <c r="F36" s="414"/>
+      <c r="G36" s="417">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="423"/>
-      <c r="I36" s="424"/>
-      <c r="J36" s="425"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="416"/>
-      <c r="B37" s="411" t="str">
+      <c r="H36" s="419"/>
+      <c r="I36" s="420"/>
+      <c r="J36" s="421"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="409"/>
+      <c r="B37" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C37" s="412"/>
-      <c r="D37" s="413"/>
-      <c r="E37" s="436"/>
-      <c r="F37" s="420"/>
-      <c r="G37" s="422"/>
-      <c r="H37" s="426"/>
-      <c r="I37" s="427"/>
-      <c r="J37" s="428"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="415">
+      <c r="C37" s="426"/>
+      <c r="D37" s="427"/>
+      <c r="E37" s="415"/>
+      <c r="F37" s="416"/>
+      <c r="G37" s="418"/>
+      <c r="H37" s="422"/>
+      <c r="I37" s="423"/>
+      <c r="J37" s="424"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="408">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="433" t="s">
+      <c r="B38" s="410" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="434"/>
-      <c r="D38" s="435"/>
-      <c r="E38" s="417" t="str">
+      <c r="C38" s="411"/>
+      <c r="D38" s="412"/>
+      <c r="E38" s="413" t="str">
         <f>Данные!C21</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F38" s="418"/>
-      <c r="G38" s="421">
+      <c r="F38" s="414"/>
+      <c r="G38" s="417">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="423"/>
-      <c r="I38" s="424"/>
-      <c r="J38" s="425"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="416"/>
-      <c r="B39" s="411" t="str">
+      <c r="H38" s="419"/>
+      <c r="I38" s="420"/>
+      <c r="J38" s="421"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="409"/>
+      <c r="B39" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C39" s="412"/>
-      <c r="D39" s="413"/>
-      <c r="E39" s="436"/>
-      <c r="F39" s="420"/>
-      <c r="G39" s="422"/>
-      <c r="H39" s="426"/>
-      <c r="I39" s="427"/>
-      <c r="J39" s="428"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="415">
+      <c r="C39" s="426"/>
+      <c r="D39" s="427"/>
+      <c r="E39" s="415"/>
+      <c r="F39" s="416"/>
+      <c r="G39" s="418"/>
+      <c r="H39" s="422"/>
+      <c r="I39" s="423"/>
+      <c r="J39" s="424"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="408">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="433" t="s">
+      <c r="B40" s="410" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="434"/>
-      <c r="D40" s="435"/>
-      <c r="E40" s="417" t="str">
+      <c r="C40" s="411"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="413" t="str">
         <f>Данные!C23</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F40" s="418"/>
-      <c r="G40" s="421">
+      <c r="F40" s="414"/>
+      <c r="G40" s="417">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="423"/>
-      <c r="I40" s="424"/>
-      <c r="J40" s="425"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="416"/>
-      <c r="B41" s="411" t="str">
+      <c r="H40" s="419"/>
+      <c r="I40" s="420"/>
+      <c r="J40" s="421"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="409"/>
+      <c r="B41" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C41" s="412"/>
-      <c r="D41" s="413"/>
-      <c r="E41" s="436"/>
-      <c r="F41" s="420"/>
-      <c r="G41" s="422"/>
-      <c r="H41" s="426"/>
-      <c r="I41" s="427"/>
-      <c r="J41" s="428"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="415">
+      <c r="C41" s="426"/>
+      <c r="D41" s="427"/>
+      <c r="E41" s="415"/>
+      <c r="F41" s="416"/>
+      <c r="G41" s="418"/>
+      <c r="H41" s="422"/>
+      <c r="I41" s="423"/>
+      <c r="J41" s="424"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="408">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="433" t="s">
+      <c r="B42" s="410" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="434"/>
-      <c r="D42" s="435"/>
-      <c r="E42" s="417" t="str">
+      <c r="C42" s="411"/>
+      <c r="D42" s="412"/>
+      <c r="E42" s="413" t="str">
         <f>Данные!C26</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F42" s="418"/>
-      <c r="G42" s="421">
+      <c r="F42" s="414"/>
+      <c r="G42" s="417">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="423"/>
-      <c r="I42" s="424"/>
-      <c r="J42" s="425"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="416"/>
-      <c r="B43" s="411" t="str">
+      <c r="H42" s="419"/>
+      <c r="I42" s="420"/>
+      <c r="J42" s="421"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="409"/>
+      <c r="B43" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C43" s="412"/>
-      <c r="D43" s="413"/>
-      <c r="E43" s="436"/>
-      <c r="F43" s="420"/>
-      <c r="G43" s="422"/>
-      <c r="H43" s="426"/>
-      <c r="I43" s="427"/>
-      <c r="J43" s="428"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="415">
+      <c r="C43" s="426"/>
+      <c r="D43" s="427"/>
+      <c r="E43" s="415"/>
+      <c r="F43" s="416"/>
+      <c r="G43" s="418"/>
+      <c r="H43" s="422"/>
+      <c r="I43" s="423"/>
+      <c r="J43" s="424"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="408">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="433" t="s">
+      <c r="B44" s="410" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="434"/>
-      <c r="D44" s="435"/>
-      <c r="E44" s="417">
+      <c r="C44" s="411"/>
+      <c r="D44" s="412"/>
+      <c r="E44" s="413">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="418"/>
-      <c r="G44" s="421">
+      <c r="F44" s="414"/>
+      <c r="G44" s="417">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="423"/>
-      <c r="I44" s="424"/>
-      <c r="J44" s="425"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="416"/>
-      <c r="B45" s="411" t="str">
+      <c r="H44" s="419"/>
+      <c r="I44" s="420"/>
+      <c r="J44" s="421"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="409"/>
+      <c r="B45" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C45" s="412"/>
-      <c r="D45" s="413"/>
-      <c r="E45" s="436"/>
-      <c r="F45" s="420"/>
-      <c r="G45" s="422"/>
-      <c r="H45" s="426"/>
-      <c r="I45" s="427"/>
-      <c r="J45" s="428"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="415">
+      <c r="C45" s="426"/>
+      <c r="D45" s="427"/>
+      <c r="E45" s="415"/>
+      <c r="F45" s="416"/>
+      <c r="G45" s="418"/>
+      <c r="H45" s="422"/>
+      <c r="I45" s="423"/>
+      <c r="J45" s="424"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="408">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="433" t="s">
+      <c r="B46" s="410" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="434"/>
-      <c r="D46" s="435"/>
-      <c r="E46" s="417" t="str">
+      <c r="C46" s="411"/>
+      <c r="D46" s="412"/>
+      <c r="E46" s="413" t="str">
         <f>Данные!C24</f>
         <v>ХXI-В-28-1-250</v>
       </c>
-      <c r="F46" s="418"/>
-      <c r="G46" s="421">
+      <c r="F46" s="414"/>
+      <c r="G46" s="417">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="423"/>
-      <c r="I46" s="424"/>
-      <c r="J46" s="425"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="416"/>
-      <c r="B47" s="411" t="str">
+      <c r="H46" s="419"/>
+      <c r="I46" s="420"/>
+      <c r="J46" s="421"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="409"/>
+      <c r="B47" s="425" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХXI-В-28-1-250)</v>
       </c>
-      <c r="C47" s="412"/>
-      <c r="D47" s="413"/>
-      <c r="E47" s="436"/>
-      <c r="F47" s="420"/>
-      <c r="G47" s="422"/>
-      <c r="H47" s="426"/>
-      <c r="I47" s="427"/>
-      <c r="J47" s="428"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="426"/>
+      <c r="D47" s="427"/>
+      <c r="E47" s="415"/>
+      <c r="F47" s="416"/>
+      <c r="G47" s="418"/>
+      <c r="H47" s="422"/>
+      <c r="I47" s="423"/>
+      <c r="J47" s="424"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
       <c r="B48" s="311"/>
       <c r="C48" s="311"/>
@@ -8444,7 +8702,7 @@
       <c r="I48" s="311"/>
       <c r="J48" s="312"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="311" t="s">
         <v>71</v>
       </c>
@@ -8458,7 +8716,7 @@
       <c r="I49" s="311"/>
       <c r="J49" s="312"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="311"/>
       <c r="B50" s="311"/>
       <c r="C50" s="311"/>
@@ -8470,7 +8728,7 @@
       <c r="I50" s="311"/>
       <c r="J50" s="312"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="311"/>
       <c r="B51" s="314" t="s">
         <v>72</v>
@@ -8486,7 +8744,7 @@
       <c r="I51" s="311"/>
       <c r="J51" s="312"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="311"/>
       <c r="C52" s="311"/>
@@ -8498,7 +8756,7 @@
       <c r="I52" s="311"/>
       <c r="J52" s="312"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="311"/>
       <c r="B53" s="311"/>
       <c r="C53" s="311"/>
@@ -8512,7 +8770,7 @@
       </c>
       <c r="J53" s="311"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="311"/>
       <c r="B54" s="311"/>
       <c r="C54" s="311"/>
@@ -8523,7 +8781,7 @@
       <c r="I54" s="311"/>
       <c r="J54" s="311"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="311"/>
       <c r="B55" s="311"/>
       <c r="C55" s="311"/>
@@ -8536,14 +8794,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="308"/>
       <c r="B56" s="308"/>
       <c r="C56" s="308"/>
       <c r="D56" s="308"/>
       <c r="E56" s="308"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="308"/>
       <c r="B57" s="308"/>
       <c r="C57" s="308"/>
@@ -8559,70 +8817,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -8639,15 +8833,79 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8657,20 +8915,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8691,49 +8949,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="464" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="471" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="472"/>
-      <c r="K2" s="475">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="476"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="458"/>
-      <c r="C3" s="459"/>
-      <c r="D3" s="460"/>
-      <c r="E3" s="468" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="478"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8742,11 +9000,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="461"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="463"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8763,24 +9021,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="465"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="442"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="466"/>
+      <c r="J5" s="467"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8789,24 +9047,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="444"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="468"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="442"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="401"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="466"/>
+      <c r="J6" s="467"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8815,29 +9073,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="448"/>
-      <c r="D7" s="403">
+      <c r="C7" s="472"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="447" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="471" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="391">
+      <c r="J7" s="475"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -8846,7 +9104,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -8867,7 +9125,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -8900,7 +9158,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="197"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -8933,7 +9191,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -8966,7 +9224,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -8999,7 +9257,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -9032,7 +9290,7 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -9065,7 +9323,7 @@
       <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -9098,7 +9356,7 @@
       <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -9131,7 +9389,7 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -9164,7 +9422,7 @@
       <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -9197,7 +9455,7 @@
       <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>35</v>
@@ -9230,7 +9488,7 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>40</v>
@@ -9263,7 +9521,7 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="104" t="s">
         <v>41</v>
@@ -9296,14 +9554,14 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
-      <c r="B22" s="452" t="s">
+      <c r="B22" s="476" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="453"/>
-      <c r="D22" s="453"/>
-      <c r="E22" s="454"/>
+      <c r="C22" s="477"/>
+      <c r="D22" s="477"/>
+      <c r="E22" s="478"/>
       <c r="F22" s="116" t="s">
         <v>16</v>
       </c>
@@ -9323,14 +9581,14 @@
       <c r="R22" s="331"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="437" t="s">
+      <c r="B23" s="461" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="438"/>
-      <c r="D23" s="438"/>
-      <c r="E23" s="439"/>
+      <c r="C23" s="462"/>
+      <c r="D23" s="462"/>
+      <c r="E23" s="463"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -9350,7 +9608,7 @@
       <c r="R23" s="333"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="111"/>
       <c r="C24" s="111"/>
@@ -9371,15 +9629,9 @@
       <c r="R24" s="113"/>
       <c r="S24" s="114"/>
     </row>
-    <row r="25" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9394,6 +9646,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R23">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -9413,7 +9671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9423,20 +9681,20 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -9457,52 +9715,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="486">
+      <c r="B2" s="479">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="494" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="495"/>
+      <c r="K2" s="498">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="499"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="491" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="500"/>
+      <c r="L3" s="501"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9511,11 +9769,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="487"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -9532,24 +9790,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="502"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="504"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9558,24 +9816,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="502"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9584,29 +9842,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="403">
+      <c r="C7" s="506"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="391">
+      <c r="J7" s="506"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9615,7 +9873,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -9636,7 +9894,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -9669,7 +9927,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -9702,7 +9960,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -9735,7 +9993,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -9768,7 +10026,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -9801,15 +10059,15 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="452" t="s">
+      <c r="B14" s="476" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="453"/>
-      <c r="D14" s="453"/>
-      <c r="E14" s="453"/>
-      <c r="F14" s="485"/>
+      <c r="C14" s="477"/>
+      <c r="D14" s="477"/>
+      <c r="E14" s="477"/>
+      <c r="F14" s="508"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -9826,14 +10084,14 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="437" t="s">
+      <c r="B15" s="461" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="438"/>
-      <c r="D15" s="438"/>
-      <c r="E15" s="439"/>
+      <c r="C15" s="462"/>
+      <c r="D15" s="462"/>
+      <c r="E15" s="463"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -9853,7 +10111,7 @@
       <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -9874,22 +10132,16 @@
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="123"/>
       <c r="P17" s="124"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -9904,6 +10156,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9931,7 +10189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9941,20 +10199,20 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -9975,49 +10233,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="464" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="471" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="472"/>
-      <c r="K2" s="475">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="476"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
+      <c r="P2" s="449"/>
+      <c r="Q2" s="449"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="458"/>
-      <c r="C3" s="459"/>
-      <c r="D3" s="460"/>
-      <c r="E3" s="468" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="478"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10026,11 +10284,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="461"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="463"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10047,24 +10305,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="465"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="442"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="466"/>
+      <c r="J5" s="467"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10073,24 +10331,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="444"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="468"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="442"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="401"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="466"/>
+      <c r="J6" s="467"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10099,29 +10357,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="448"/>
-      <c r="D7" s="403">
+      <c r="C7" s="472"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="447" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="471" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="391">
+      <c r="J7" s="475"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10130,7 +10388,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -10151,7 +10409,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -10187,7 +10445,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -10223,7 +10481,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -10259,7 +10517,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -10295,7 +10553,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -10331,7 +10589,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -10367,7 +10625,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -10403,7 +10661,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -10439,7 +10697,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -10475,7 +10733,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -10511,7 +10769,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>34</v>
@@ -10547,7 +10805,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -10580,7 +10838,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -10601,9 +10859,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -10620,8 +10880,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10643,7 +10901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -10653,20 +10911,20 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -10687,26 +10945,26 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="464" t="s">
+      <c r="B2" s="437"/>
+      <c r="C2" s="438"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="446" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="471" t="s">
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="453" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="472"/>
-      <c r="K2" s="475">
+      <c r="J2" s="454"/>
+      <c r="K2" s="457">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="476"/>
+      <c r="L2" s="458"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -10715,21 +10973,21 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="458"/>
-      <c r="C3" s="459"/>
-      <c r="D3" s="460"/>
-      <c r="E3" s="468" t="s">
+      <c r="B3" s="440"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="450" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="478"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="451"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="460"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10738,11 +10996,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="461"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="463"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="445"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10759,24 +11017,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="465"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="442"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="401"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="466"/>
+      <c r="J5" s="467"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10785,24 +11043,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="444"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="468"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="442"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="401"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="466"/>
+      <c r="J6" s="467"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10811,29 +11069,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="448"/>
-      <c r="D7" s="403">
+      <c r="C7" s="472"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="447" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="471" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="391">
+      <c r="J7" s="475"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10842,7 +11100,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -10863,7 +11121,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -10896,7 +11154,7 @@
       <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -10929,7 +11187,7 @@
       <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -10962,7 +11220,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -10995,7 +11253,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -11028,7 +11286,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -11061,7 +11319,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -11094,7 +11352,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -11115,20 +11373,9 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11136,6 +11383,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -11158,7 +11416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11171,20 +11429,20 @@
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11205,26 +11463,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="479"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="494" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="495"/>
+      <c r="K2" s="498">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="499"/>
       <c r="M2" s="510"/>
       <c r="N2" s="511"/>
       <c r="O2" s="511"/>
@@ -11233,21 +11491,21 @@
       <c r="R2" s="512"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="491" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="500"/>
+      <c r="L3" s="501"/>
       <c r="M3" s="513"/>
       <c r="N3" s="514"/>
       <c r="O3" s="514"/>
@@ -11256,11 +11514,11 @@
       <c r="R3" s="515"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="487"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11277,24 +11535,24 @@
       <c r="R4" s="515"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="502"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="504"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="513"/>
       <c r="N5" s="514"/>
       <c r="O5" s="514"/>
@@ -11303,24 +11561,24 @@
       <c r="R5" s="515"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="502"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="513"/>
       <c r="N6" s="514"/>
       <c r="O6" s="514"/>
@@ -11329,29 +11587,29 @@
       <c r="R6" s="515"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="403">
+      <c r="C7" s="506"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="391">
+      <c r="J7" s="506"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="513"/>
       <c r="N7" s="514"/>
       <c r="O7" s="514"/>
@@ -11360,7 +11618,7 @@
       <c r="R7" s="515"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11381,7 +11639,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -11414,7 +11672,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11447,7 +11705,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="200" t="s">
         <v>26</v>
@@ -11480,7 +11738,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="200" t="s">
         <v>2</v>
@@ -11513,7 +11771,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="200" t="s">
         <v>3</v>
@@ -11546,7 +11804,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11579,7 +11837,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -11612,7 +11870,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -11645,7 +11903,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -11678,7 +11936,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -11711,7 +11969,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>41</v>
@@ -11744,7 +12002,7 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
         <v>35</v>
@@ -11777,14 +12035,14 @@
       <c r="R20" s="100"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="437" t="s">
+      <c r="B21" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="438"/>
-      <c r="D21" s="438"/>
-      <c r="E21" s="439"/>
+      <c r="C21" s="462"/>
+      <c r="D21" s="462"/>
+      <c r="E21" s="463"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -11804,7 +12062,7 @@
       <c r="R21" s="109"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
@@ -11825,11 +12083,18 @@
       <c r="R22" s="113"/>
       <c r="S22" s="114"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -11842,13 +12107,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -11868,7 +12126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11878,19 +12136,19 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11911,26 +12169,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="479"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="494" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="495"/>
+      <c r="K2" s="498">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="499"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -11939,21 +12197,21 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="491" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="500"/>
+      <c r="L3" s="501"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11962,11 +12220,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="487"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11983,24 +12241,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="502"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="504"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12009,24 +12267,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="502"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12035,29 +12293,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="403">
+      <c r="C7" s="506"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="391">
+      <c r="J7" s="506"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12066,7 +12324,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12087,7 +12345,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -12120,7 +12378,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="129" t="s">
         <v>26</v>
@@ -12153,7 +12411,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="129" t="s">
         <v>2</v>
@@ -12186,7 +12444,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="129" t="s">
         <v>3</v>
@@ -12219,7 +12477,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="129" t="s">
         <v>27</v>
@@ -12252,7 +12510,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="129" t="s">
         <v>9</v>
@@ -12285,7 +12543,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="129" t="s">
         <v>5</v>
@@ -12318,14 +12576,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="437" t="s">
+      <c r="B16" s="461" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="438"/>
-      <c r="D16" s="438"/>
-      <c r="E16" s="439"/>
+      <c r="C16" s="462"/>
+      <c r="D16" s="462"/>
+      <c r="E16" s="463"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -12345,7 +12603,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="128"/>
       <c r="C17" s="127"/>
@@ -12366,11 +12624,20 @@
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -12381,15 +12648,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -12411,7 +12669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12421,20 +12679,20 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="169" customWidth="1"/>
     <col min="8" max="18" width="9" style="169" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="169"/>
+    <col min="19" max="19" width="1.42578125" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="169"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165"/>
       <c r="B1" s="166"/>
       <c r="C1" s="167"/>
@@ -12455,26 +12713,26 @@
       <c r="R1" s="167"/>
       <c r="S1" s="168"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="479"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="494" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="495"/>
+      <c r="K2" s="498">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="499"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -12483,21 +12741,21 @@
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="491" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="496"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="500"/>
+      <c r="L3" s="501"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -12506,11 +12764,11 @@
       <c r="R3" s="178"/>
       <c r="S3" s="175"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="486"/>
+      <c r="D4" s="487"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12527,24 +12785,24 @@
       <c r="R4" s="178"/>
       <c r="S4" s="175"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="400" t="str">
+      <c r="C5" s="502"/>
+      <c r="D5" s="402" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="401"/>
-      <c r="G5" s="401"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="402"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="504"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="404"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -12553,24 +12811,24 @@
       <c r="R5" s="178"/>
       <c r="S5" s="175"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="464" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="394" t="str">
+      <c r="C6" s="502"/>
+      <c r="D6" s="396" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-250-6 (Крис1а 0.25 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="402"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="504"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="404"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -12579,29 +12837,29 @@
       <c r="R6" s="178"/>
       <c r="S6" s="175"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="471" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="403">
+      <c r="C7" s="506"/>
+      <c r="D7" s="405">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="473"/>
+      <c r="F7" s="473"/>
+      <c r="G7" s="473"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="391">
+      <c r="J7" s="506"/>
+      <c r="K7" s="393">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="392"/>
+      <c r="L7" s="394"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -12610,7 +12868,7 @@
       <c r="R7" s="178"/>
       <c r="S7" s="175"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="180"/>
       <c r="B8" s="181"/>
       <c r="C8" s="182"/>
@@ -12631,7 +12889,7 @@
       <c r="R8" s="185"/>
       <c r="S8" s="186"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="187"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -12664,7 +12922,7 @@
       <c r="R9" s="346"/>
       <c r="S9" s="202"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="180"/>
       <c r="B10" s="189" t="s">
         <v>25</v>
@@ -12699,7 +12957,7 @@
       <c r="R10" s="348"/>
       <c r="S10" s="186"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="180"/>
       <c r="B11" s="191" t="s">
         <v>26</v>
@@ -12732,7 +12990,7 @@
       <c r="R11" s="350"/>
       <c r="S11" s="186"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="180"/>
       <c r="B12" s="191" t="s">
         <v>2</v>
@@ -12765,7 +13023,7 @@
       <c r="R12" s="350"/>
       <c r="S12" s="186"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="180"/>
       <c r="B13" s="191" t="s">
         <v>3</v>
@@ -12798,7 +13056,7 @@
       <c r="R13" s="350"/>
       <c r="S13" s="186"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="180"/>
       <c r="B14" s="191" t="s">
         <v>27</v>
@@ -12831,7 +13089,7 @@
       <c r="R14" s="350"/>
       <c r="S14" s="186"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="180"/>
       <c r="B15" s="191" t="s">
         <v>28</v>
@@ -12864,7 +13122,7 @@
       <c r="R15" s="350"/>
       <c r="S15" s="186"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="180"/>
       <c r="B16" s="191" t="s">
         <v>4</v>
@@ -12897,7 +13155,7 @@
       <c r="R16" s="350"/>
       <c r="S16" s="186"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="180"/>
       <c r="B17" s="191" t="s">
         <v>9</v>
@@ -12930,7 +13188,7 @@
       <c r="R17" s="350"/>
       <c r="S17" s="186"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="180"/>
       <c r="B18" s="191" t="s">
         <v>5</v>
@@ -12963,7 +13221,7 @@
       <c r="R18" s="350"/>
       <c r="S18" s="186"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="193"/>
       <c r="B19" s="194"/>
       <c r="C19" s="194"/>
@@ -12984,9 +13242,20 @@
       <c r="R19" s="194"/>
       <c r="S19" s="196"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12994,17 +13263,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
